--- a/guide41_moodle.xlsx
+++ b/guide41_moodle.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F1A94-7BAB-4870-A462-9F8CA4AC2C40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B86DF7-C593-4224-B807-1DBB8C603FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="2" r:id="rId1"/>
+    <sheet name="index" sheetId="3" r:id="rId1"/>
+    <sheet name="p1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>header1</t>
   </si>
@@ -72,6 +73,34 @@
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _広大moodleとは</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;広大moodleとは&lt;/h3&gt;&lt;br&gt;
+2021 年度に広島大学は、オンライン授業環境のさらなる充実をはかるために、オープンソースの e-Learning プラットホームである moodle をもとに開発した、広大 moodle を導入しました。
+　広大 moodle では、授業や講習会の単位で作成されたコースと呼ばれる Web ページ群をもとに学修活動を行います。そこでは学生に授業資料を提示したり、レポート課題を出したり、小テストを課したりすることができます。
+　授業での広大 moodle の利便性を高めるために、「もみじ」で開講されている授業科目に対応したコースは自動作成され、担当教員や履修生がそのコースに自動的に登録されます。さらに「もみじ」で担当教員や履修生に変更があった場合、その内容が広大 moodle のコースに自動的に反映されます。
+　ぜひ広大 moodle をご利用ください。&lt;br &gt;
+</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -480,11 +509,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C44D1-239C-40FB-B9EE-10C50CE73F90}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="243" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -615,15 +707,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -872,7 +955,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -890,15 +973,16 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -917,7 +1001,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -926,4 +1010,12 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_moodle.xlsx
+++ b/guide41_moodle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B86DF7-C593-4224-B807-1DBB8C603FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BFB82A-D404-48A1-A4ED-EA679DF8E709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C44D1-239C-40FB-B9EE-10C50CE73F90}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -956,6 +956,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -971,15 +980,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,6 +1002,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1010,12 +1018,4 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_moodle.xlsx
+++ b/guide41_moodle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BFB82A-D404-48A1-A4ED-EA679DF8E709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32AA6E4-FAED-47C3-B894-E57B61FE8256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>header1</t>
   </si>
@@ -45,20 +45,6 @@
   </si>
   <si>
     <t>fresta</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="moodle"&gt;&lt;/a&gt;広大moodleとは&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本書では、広大 moodle の基本的な使い方を簡単にご紹介します。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#moodle"&gt;広大moodleとは&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="62" eb="64">
-      <t>ヒロダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　2021 年度に広島大学は、オンライン授業環境のさらなる充実をはかるために、オープンソースの e-Learning プラットホームである moodle をもとに開発した、広大 moodle を導入しました。
@@ -94,13 +80,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;広大moodleとは&lt;/h3&gt;&lt;br&gt;
-2021 年度に広島大学は、オンライン授業環境のさらなる充実をはかるために、オープンソースの e-Learning プラットホームである moodle をもとに開発した、広大 moodle を導入しました。
-　広大 moodle では、授業や講習会の単位で作成されたコースと呼ばれる Web ページ群をもとに学修活動を行います。そこでは学生に授業資料を提示したり、レポート課題を出したり、小テストを課したりすることができます。
-　授業での広大 moodle の利便性を高めるために、「もみじ」で開講されている授業科目に対応したコースは自動作成され、担当教員や履修生がそのコースに自動的に登録されます。さらに「もみじ」で担当教員や履修生に変更があった場合、その内容が広大 moodle のコースに自動的に反映されます。
-　ぜひ広大 moodle をご利用ください。&lt;br &gt;
-</t>
-    <phoneticPr fontId="2"/>
+    <t>広大moodleとは</t>
   </si>
 </sst>
 </file>
@@ -512,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C44D1-239C-40FB-B9EE-10C50CE73F90}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -535,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -543,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -553,13 +533,11 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="243" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
@@ -573,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -595,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -611,39 +589,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -695,9 +666,6 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -707,6 +675,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -955,15 +932,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -983,6 +951,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1001,14 +977,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_moodle.xlsx
+++ b/guide41_moodle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32AA6E4-FAED-47C3-B894-E57B61FE8256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB68F445-A66A-4B70-8AD9-4483ECD7D977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>広大moodle 教職員向けマニュアル _広大moodleとは</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -81,6 +78,10 @@
   </si>
   <si>
     <t>広大moodleとは</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -493,7 +494,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -523,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -533,7 +534,7 @@
     <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -573,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -675,15 +676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -932,6 +924,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -951,14 +952,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -977,6 +970,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
